--- a/data/trans_orig/P04B3_1_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P04B3_1_2023-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>166618</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>146418</v>
+        <v>147273</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>188189</v>
+        <v>188697</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.2880024665866644</v>
+        <v>0.2880024665866645</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2530869493066783</v>
+        <v>0.2545638720121405</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3252884567382052</v>
+        <v>0.3261666396355192</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>429</v>
@@ -762,19 +762,19 @@
         <v>263023</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>242781</v>
+        <v>243203</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>283524</v>
+        <v>285217</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.3199645580421816</v>
+        <v>0.3199645580421817</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2953398852809748</v>
+        <v>0.2958532804356421</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3449031672349384</v>
+        <v>0.3469637829970754</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>639</v>
@@ -783,19 +783,19 @@
         <v>429641</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>398958</v>
+        <v>401683</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>459216</v>
+        <v>458417</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.3067620433741414</v>
+        <v>0.3067620433741413</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2848547373536799</v>
+        <v>0.2867999682480741</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3278785097859317</v>
+        <v>0.327307993933585</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>100427</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>83943</v>
+        <v>84024</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>118711</v>
+        <v>118958</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1735909024743512</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1450974772800624</v>
+        <v>0.1452377682123672</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2051948003729774</v>
+        <v>0.2056210395507526</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>235</v>
@@ -833,19 +833,19 @@
         <v>132075</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>116975</v>
+        <v>115038</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>148567</v>
+        <v>147830</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1606673182684615</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1422992244191617</v>
+        <v>0.1399420124825008</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1807298737537752</v>
+        <v>0.1798335489338244</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>361</v>
@@ -854,19 +854,19 @@
         <v>232502</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>209284</v>
+        <v>210560</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>256238</v>
+        <v>257833</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1660056363281346</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1494283227040712</v>
+        <v>0.1503393125738111</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1829533305830098</v>
+        <v>0.1840917568992307</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>74524</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>58725</v>
+        <v>60163</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>90573</v>
+        <v>91310</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1288164782849126</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.101507435610523</v>
+        <v>0.1039936467388728</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1565568539478479</v>
+        <v>0.1578312318948711</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>221</v>
@@ -904,19 +904,19 @@
         <v>131845</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>115601</v>
+        <v>115468</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>148980</v>
+        <v>150503</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1603875106677858</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1406271214854145</v>
+        <v>0.1404650881317114</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1812329663445708</v>
+        <v>0.1830857699023063</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>308</v>
@@ -925,19 +925,19 @@
         <v>206369</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>182649</v>
+        <v>184987</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>231438</v>
+        <v>232239</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.1473465299578671</v>
+        <v>0.147346529957867</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1304108634925677</v>
+        <v>0.1320799091950496</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1652459953610894</v>
+        <v>0.165817977881429</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>236960</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>214246</v>
+        <v>214191</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>260644</v>
+        <v>261880</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4095901526540719</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3703286782262993</v>
+        <v>0.3702340252023054</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.450529004049149</v>
+        <v>0.4526659850619449</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>542</v>
@@ -975,19 +975,19 @@
         <v>295096</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>273371</v>
+        <v>274612</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>315469</v>
+        <v>314681</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.358980613021571</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3325524512787759</v>
+        <v>0.3340623384586255</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3837646670880631</v>
+        <v>0.382806087623677</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>810</v>
@@ -996,19 +996,19 @@
         <v>532056</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>502102</v>
+        <v>499425</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>563458</v>
+        <v>564933</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.379885790339857</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3584993810460841</v>
+        <v>0.3565880189094927</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4023068255809753</v>
+        <v>0.4033603675738457</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>578226</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>534149</v>
+        <v>532459</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>626895</v>
+        <v>628095</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2592283134489539</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2394679503917536</v>
+        <v>0.2387104693310658</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2810473859150775</v>
+        <v>0.2815855179837136</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>656</v>
@@ -1121,19 +1121,19 @@
         <v>529725</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>490752</v>
+        <v>496118</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>567592</v>
+        <v>569183</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.2440359722169778</v>
+        <v>0.2440359722169777</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2260815394944368</v>
+        <v>0.2285538361382979</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2614806458986287</v>
+        <v>0.2622138881807153</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1198</v>
@@ -1142,19 +1142,19 @@
         <v>1107951</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1053338</v>
+        <v>1048429</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>1166332</v>
+        <v>1170587</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2517354940883971</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2393269961524695</v>
+        <v>0.2382115450381843</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2650001689935653</v>
+        <v>0.2659669029782575</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>276725</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>241779</v>
+        <v>244764</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>314224</v>
+        <v>315891</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1240604369079429</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.108393594820099</v>
+        <v>0.1097315660095763</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1408720196923466</v>
+        <v>0.1416190154394918</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>382</v>
@@ -1192,19 +1192,19 @@
         <v>291252</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>262418</v>
+        <v>260184</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>322596</v>
+        <v>320982</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1341751306488577</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1208919158758824</v>
+        <v>0.1198626676412725</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1486148804005687</v>
+        <v>0.1478713492442635</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>624</v>
@@ -1213,19 +1213,19 @@
         <v>567977</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>522029</v>
+        <v>519398</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>611878</v>
+        <v>613413</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1290489750095302</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1186092940499984</v>
+        <v>0.11801143223129</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1390235765699775</v>
+        <v>0.1393724065958989</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>406186</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>363241</v>
+        <v>366256</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>451189</v>
+        <v>449026</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1820997598006746</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1628470438442621</v>
+        <v>0.1641986474614765</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2022755365129228</v>
+        <v>0.201305715156237</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>446</v>
@@ -1263,19 +1263,19 @@
         <v>356582</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>327910</v>
+        <v>325196</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>391307</v>
+        <v>388489</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.1642715086453621</v>
+        <v>0.1642715086453622</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1510629924966545</v>
+        <v>0.1498127768138766</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1802690983234649</v>
+        <v>0.1789707062720164</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>775</v>
@@ -1284,19 +1284,19 @@
         <v>762767</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>710184</v>
+        <v>711528</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>817068</v>
+        <v>820468</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1733069171846706</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1613596232288156</v>
+        <v>0.161664992035623</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1856444512112941</v>
+        <v>0.1864171066831044</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>969430</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>914311</v>
+        <v>923379</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1024570</v>
+        <v>1026158</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.4346114898424286</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4099007588547748</v>
+        <v>0.4139662063534448</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4593320253310491</v>
+        <v>0.4600437291990693</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1436</v>
@@ -1334,19 +1334,19 @@
         <v>993126</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>951058</v>
+        <v>951746</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>1037259</v>
+        <v>1036026</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.4575173884888024</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.4381375439941852</v>
+        <v>0.4384542571294129</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4778488864490651</v>
+        <v>0.4772809821498862</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>2315</v>
@@ -1355,19 +1355,19 @@
         <v>1962556</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1888931</v>
+        <v>1895300</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>2028534</v>
+        <v>2029690</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.4459086137174021</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.4291805754780654</v>
+        <v>0.4306274923745293</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.460899408278798</v>
+        <v>0.4611619871017374</v>
       </c>
     </row>
     <row r="13">
@@ -1459,19 +1459,19 @@
         <v>144934</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>121931</v>
+        <v>124210</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>171164</v>
+        <v>170400</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2044309378871729</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1719847592995044</v>
+        <v>0.1751994583883848</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.241428130780421</v>
+        <v>0.2403510164064988</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>154</v>
@@ -1480,19 +1480,19 @@
         <v>118424</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>101467</v>
+        <v>102040</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>139360</v>
+        <v>136798</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1618959198577655</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1387150713769423</v>
+        <v>0.1394979029298632</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1905176647499368</v>
+        <v>0.1870148153637498</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>294</v>
@@ -1501,19 +1501,19 @@
         <v>263358</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>233108</v>
+        <v>234211</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>296377</v>
+        <v>291273</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.1828310022326891</v>
+        <v>0.1828310022326892</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1618307951516509</v>
+        <v>0.1625961281517127</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2057536371484268</v>
+        <v>0.2022107612340571</v>
       </c>
     </row>
     <row r="15">
@@ -1530,19 +1530,19 @@
         <v>88660</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>70798</v>
+        <v>70159</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>108061</v>
+        <v>108323</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1250561462709535</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.09986097178804115</v>
+        <v>0.09895963567802697</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1524211521099724</v>
+        <v>0.1527907388499821</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>142</v>
@@ -1551,19 +1551,19 @@
         <v>103217</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>87476</v>
+        <v>86728</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>122200</v>
+        <v>122604</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1411075457482226</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.119587854441289</v>
+        <v>0.1185652929775284</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1670585151796157</v>
+        <v>0.1676104144412061</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>229</v>
@@ -1572,19 +1572,19 @@
         <v>191878</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>168255</v>
+        <v>168465</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>218972</v>
+        <v>218021</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1332072935358664</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1168073521374395</v>
+        <v>0.116953209577643</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1520168947415307</v>
+        <v>0.1513569485865952</v>
       </c>
     </row>
     <row r="16">
@@ -1601,19 +1601,19 @@
         <v>121776</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>102016</v>
+        <v>101063</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>146783</v>
+        <v>145411</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1717657798779401</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1438947536387742</v>
+        <v>0.1425502871339166</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2070389604552478</v>
+        <v>0.2051025330770058</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>158</v>
@@ -1622,19 +1622,19 @@
         <v>125615</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>107308</v>
+        <v>107706</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>145940</v>
+        <v>144607</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1717268921361973</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1466996833145713</v>
+        <v>0.1472439503384448</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1995136916750942</v>
+        <v>0.1976915257353991</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>269</v>
@@ -1643,19 +1643,19 @@
         <v>247391</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>221227</v>
+        <v>217249</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>278806</v>
+        <v>278222</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1717460320852199</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1535824245932289</v>
+        <v>0.1508205204024727</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1935552899392726</v>
+        <v>0.1931497520231295</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>353594</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>326169</v>
+        <v>323150</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>383302</v>
+        <v>381640</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.4987471359639337</v>
+        <v>0.4987471359639335</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4600642544371267</v>
+        <v>0.455805648597219</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5406502192571523</v>
+        <v>0.5383055773131764</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>546</v>
@@ -1693,19 +1693,19 @@
         <v>384224</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>360407</v>
+        <v>359946</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>412709</v>
+        <v>407994</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5252696422578145</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4927090125225138</v>
+        <v>0.4920795382721606</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5642105913146603</v>
+        <v>0.557764761727645</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>887</v>
@@ -1714,19 +1714,19 @@
         <v>737819</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>700369</v>
+        <v>704057</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>773114</v>
+        <v>779665</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.5122156721462243</v>
+        <v>0.5122156721462244</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4862174309190236</v>
+        <v>0.488777113299982</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.536719186880909</v>
+        <v>0.5412669885603253</v>
       </c>
     </row>
     <row r="18">
@@ -1818,19 +1818,19 @@
         <v>889778</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>834254</v>
+        <v>832053</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>946878</v>
+        <v>941611</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2529172421792245</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2371345715920545</v>
+        <v>0.2365091032927421</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2691477190937099</v>
+        <v>0.2676505708409977</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1239</v>
@@ -1839,19 +1839,19 @@
         <v>911172</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>865410</v>
+        <v>865289</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>959783</v>
+        <v>962429</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2446622383759093</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2323745664296753</v>
+        <v>0.2323420924436528</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2577150214276796</v>
+        <v>0.258425455318017</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>2131</v>
@@ -1860,19 +1860,19 @@
         <v>1800950</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1727181</v>
+        <v>1730182</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>1875040</v>
+        <v>1874298</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.2486722563377485</v>
+        <v>0.2486722563377486</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2384863141016887</v>
+        <v>0.2389007085571987</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2589024383859517</v>
+        <v>0.2588000396094294</v>
       </c>
     </row>
     <row r="20">
@@ -1889,19 +1889,19 @@
         <v>465813</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>423816</v>
+        <v>426271</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>511419</v>
+        <v>515483</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1324061579575415</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1204686991344857</v>
+        <v>0.1211664695119411</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1453695466930193</v>
+        <v>0.1465248394609935</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>759</v>
@@ -1910,19 +1910,19 @@
         <v>526544</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>493005</v>
+        <v>485135</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>567132</v>
+        <v>560997</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.141384327059132</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1323785635605129</v>
+        <v>0.1302654008955177</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1522827381201587</v>
+        <v>0.1506355223960415</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1214</v>
@@ -1931,19 +1931,19 @@
         <v>992357</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>935449</v>
+        <v>932333</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1051147</v>
+        <v>1051080</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1370230184250464</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.129165339404352</v>
+        <v>0.1287350996302905</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.145140724553244</v>
+        <v>0.1451313810972581</v>
       </c>
     </row>
     <row r="21">
@@ -1960,19 +1960,19 @@
         <v>602486</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>549258</v>
+        <v>557193</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>650480</v>
+        <v>655464</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1712550420879944</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1561253146392206</v>
+        <v>0.1583807768598946</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1848972273763844</v>
+        <v>0.1863140318655914</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>825</v>
@@ -1981,19 +1981,19 @@
         <v>614041</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>572634</v>
+        <v>571376</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>655022</v>
+        <v>655333</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1648785306490876</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1537601418846169</v>
+        <v>0.1534223217429109</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.175882634081812</v>
+        <v>0.1759661427137098</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1352</v>
@@ -2002,19 +2002,19 @@
         <v>1216527</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1147620</v>
+        <v>1151740</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>1276696</v>
+        <v>1286343</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.1679760368420733</v>
+        <v>0.1679760368420734</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1584614673159552</v>
+        <v>0.1590303530355819</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.176284174259144</v>
+        <v>0.1776161285808585</v>
       </c>
     </row>
     <row r="22">
@@ -2031,19 +2031,19 @@
         <v>1559984</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1499171</v>
+        <v>1493119</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1626431</v>
+        <v>1622539</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4434215577752396</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4261356534886666</v>
+        <v>0.4244153611104878</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4623089078233147</v>
+        <v>0.4612026191656347</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2524</v>
@@ -2052,19 +2052,19 @@
         <v>1672446</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1615956</v>
+        <v>1613805</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1727575</v>
+        <v>1721174</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.4490749039158712</v>
+        <v>0.4490749039158711</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4339065190822451</v>
+        <v>0.4333290238985394</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4638779599698703</v>
+        <v>0.4621592235256926</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>4012</v>
@@ -2073,19 +2073,19 @@
         <v>3232430</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3151563</v>
+        <v>3151163</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>3323745</v>
+        <v>3324172</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.4463286883951317</v>
+        <v>0.4463286883951318</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4351626953632582</v>
+        <v>0.4351074472368791</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4589373289856042</v>
+        <v>0.4589963564274261</v>
       </c>
     </row>
     <row r="23">
